--- a/本体/成像探测技术知识抽取.xlsx
+++ b/本体/成像探测技术知识抽取.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Knowledge_Extraction\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TIAN/实验室/雷达抽取/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6465" windowHeight="4485" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="22480" windowHeight="15540" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="步骤1-A概念提取（按章）" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'步骤4-B datatypeProperties'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="534">
   <si>
     <t>高频分辨率成像雷达</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,8 +279,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ℓ</t>
@@ -1999,183 +2002,189 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>算法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>英文名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容单元id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成像设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成像技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公式</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>英文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原理名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原理内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容单元id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终止页码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图书id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>出处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>频数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成像设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成像技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>出处</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>理论</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文简称</t>
+  </si>
+  <si>
+    <t>英文简称</t>
+    <rPh sb="2" eb="3">
+      <t>jian</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2432,7 +2441,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2689,18 +2698,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>162</v>
       </c>
@@ -2726,786 +2735,786 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>375</v>
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D50" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B54" s="13" t="s">
         <v>398</v>
       </c>
       <c r="C54" s="13"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B55" s="13"/>
       <c r="C55" s="13" t="s">
         <v>399</v>
       </c>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>98</v>
       </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
         <v>99</v>
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D58" t="s">
         <v>401</v>
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
         <v>399</v>
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
         <v>400</v>
       </c>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D61" t="s">
         <v>401</v>
       </c>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D62" t="s">
         <v>399</v>
       </c>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>127</v>
       </c>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>128</v>
       </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>402</v>
       </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
         <v>403</v>
       </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>404</v>
       </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>134</v>
       </c>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C70" t="s">
         <v>135</v>
       </c>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C71" t="s">
         <v>405</v>
       </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
         <v>406</v>
       </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C73" t="s">
         <v>407</v>
       </c>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C74" t="s">
         <v>408</v>
       </c>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C80" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D81" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D82" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C84" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D85" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D86" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="87" spans="2:6">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C87" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C89" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D90" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C91" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="92" spans="2:6">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D92" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D93" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="94" spans="2:6">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D94" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
         <v>428</v>
       </c>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="2:6">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D97" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C99" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D100" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D101" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D102" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D103" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C104" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D105" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D106" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C107" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D108" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D109" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D110" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C111" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D112" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D113" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D114" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C115" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C116" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D117" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C121" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C122" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C123" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C131" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C132" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C133" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C136" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C137" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C138" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C139" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="140" spans="2:3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C140" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C142" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C143" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C144" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C145" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C146" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C147" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C148" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C150" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C151" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C152" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13" t="s">
@@ -3518,7 +3527,7 @@
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13" t="s">
@@ -3531,7 +3540,7 @@
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -3542,7 +3551,7 @@
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3553,7 +3562,7 @@
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3564,7 +3573,7 @@
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3575,7 +3584,7 @@
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3586,7 +3595,7 @@
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3597,7 +3606,7 @@
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3608,7 +3617,7 @@
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -3619,7 +3628,7 @@
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -3630,7 +3639,7 @@
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -3641,7 +3650,7 @@
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -3652,7 +3661,7 @@
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -3663,7 +3672,7 @@
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -3674,7 +3683,7 @@
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -3685,7 +3694,7 @@
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -3696,7 +3705,7 @@
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -3707,7 +3716,7 @@
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -3718,7 +3727,7 @@
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -3729,7 +3738,7 @@
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -3740,7 +3749,7 @@
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -3751,7 +3760,7 @@
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -3762,7 +3771,7 @@
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -3773,7 +3782,7 @@
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -3784,7 +3793,7 @@
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -3795,7 +3804,7 @@
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -3806,7 +3815,7 @@
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -3817,7 +3826,7 @@
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -3843,15 +3852,15 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="12.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1">
+    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>220</v>
       </c>
@@ -3871,7 +3880,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>283</v>
       </c>
@@ -3879,7 +3888,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
         <v>285</v>
       </c>
@@ -3890,7 +3899,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
         <v>288</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>291</v>
       </c>
@@ -3909,7 +3918,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
         <v>293</v>
       </c>
@@ -3917,7 +3926,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="10" t="s">
         <v>295</v>
       </c>
@@ -3925,7 +3934,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>297</v>
       </c>
@@ -3933,7 +3942,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="10" t="s">
         <v>299</v>
       </c>
@@ -3941,7 +3950,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="10" t="s">
         <v>301</v>
       </c>
@@ -3949,7 +3958,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>303</v>
       </c>
@@ -3957,7 +3966,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
         <v>305</v>
       </c>
@@ -3965,7 +3974,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="10" t="s">
         <v>307</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>309</v>
       </c>
@@ -3982,7 +3991,7 @@
       </c>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
         <v>311</v>
       </c>
@@ -3990,7 +3999,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="10" t="s">
         <v>313</v>
       </c>
@@ -3998,7 +4007,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>315</v>
       </c>
@@ -4006,7 +4015,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
         <v>317</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
         <v>320</v>
       </c>
@@ -4028,7 +4037,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
         <v>323</v>
       </c>
@@ -4039,12 +4048,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" s="11" t="s">
         <v>327</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" s="11" t="s">
         <v>330</v>
       </c>
@@ -4066,7 +4075,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" s="11" t="s">
         <v>333</v>
       </c>
@@ -4077,7 +4086,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
         <v>336</v>
       </c>
@@ -4088,7 +4097,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
         <v>339</v>
       </c>
@@ -4099,7 +4108,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" s="11" t="s">
         <v>342</v>
       </c>
@@ -4110,7 +4119,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
         <v>345</v>
       </c>
@@ -4135,19 +4144,19 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="16.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="40.25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10"/>
-    <col min="6" max="6" width="13.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
+    <col min="2" max="2" width="8.83203125" style="10"/>
+    <col min="3" max="3" width="16.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="10"/>
+    <col min="6" max="6" width="13.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1">
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>253</v>
       </c>
@@ -4188,7 +4197,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1">
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>348</v>
       </c>
@@ -4202,7 +4211,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1">
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>352</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1">
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>355</v>
       </c>
@@ -4230,7 +4239,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1">
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>357</v>
       </c>
@@ -4244,7 +4253,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1">
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>360</v>
       </c>
@@ -4258,21 +4267,21 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1"/>
-    <row r="8" spans="1:14" s="11" customFormat="1"/>
-    <row r="9" spans="1:14">
+    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F23" s="11"/>
     </row>
   </sheetData>
@@ -4290,13 +4299,13 @@
       <selection activeCell="A88" sqref="A88:G145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>175</v>
       </c>
@@ -4316,223 +4325,223 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>143</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E36" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D62" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E63" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E64" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D65" s="3" t="s">
         <v>89</v>
       </c>
@@ -4540,7 +4549,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
         <v>90</v>
@@ -4548,7 +4557,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
         <v>91</v>
@@ -4556,7 +4565,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
         <v>92</v>
@@ -4564,7 +4573,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
         <v>93</v>
@@ -4572,7 +4581,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
         <v>94</v>
@@ -4580,7 +4589,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
         <v>95</v>
@@ -4588,7 +4597,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
         <v>92</v>
@@ -4596,7 +4605,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
         <v>96</v>
@@ -4604,7 +4613,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
         <v>97</v>
@@ -4612,232 +4621,232 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D75" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E76" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E77" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D79" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E80" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E83" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E84" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D85" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E86" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D89" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E91" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D92" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E93" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E94" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E97" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E98" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D99" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E100" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E102" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E103" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E104" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E105" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D106" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E107" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D109" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D111" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D112" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E113" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E114" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D115" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E116" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E117" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D120" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D121" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E122" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E123" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D124" t="s">
         <v>47</v>
       </c>
@@ -4845,7 +4854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E125" t="s">
         <v>48</v>
       </c>
@@ -4853,122 +4862,122 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D126" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D127" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D128" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="4:6">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E129" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="4:6">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F130" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="131" spans="4:6">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E131" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="4:6">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E132" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="4:6">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E133" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="4:6">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E134" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="4:6">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D135" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="136" spans="4:6">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E136" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="4:6">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E137" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="138" spans="4:6">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E138" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="4:6">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E139" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="4:6">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E140" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="4:6">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E141" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="142" spans="4:6">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.15">
       <c r="D142" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="4:6">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E143" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="4:6">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E144" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E145" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D149" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D150" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
         <v>101</v>
       </c>
@@ -4977,7 +4986,7 @@
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4986,7 +4995,7 @@
       </c>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4995,7 +5004,7 @@
       </c>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5004,7 +5013,7 @@
       </c>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5013,7 +5022,7 @@
       </c>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5022,7 +5031,7 @@
       </c>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5031,7 +5040,7 @@
       </c>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5040,7 +5049,7 @@
       </c>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5049,7 +5058,7 @@
       </c>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5058,7 +5067,7 @@
       </c>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5067,7 +5076,7 @@
       </c>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5076,7 +5085,7 @@
       </c>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
         <v>113</v>
       </c>
@@ -5085,7 +5094,7 @@
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5094,7 +5103,7 @@
       </c>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5103,7 +5112,7 @@
       </c>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5112,7 +5121,7 @@
       </c>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5121,7 +5130,7 @@
       </c>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5130,7 +5139,7 @@
       </c>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
         <v>119</v>
       </c>
@@ -5139,7 +5148,7 @@
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5148,7 +5157,7 @@
       </c>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5157,7 +5166,7 @@
       </c>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5166,7 +5175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5178,7 +5187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5190,7 +5199,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5199,7 +5208,7 @@
       </c>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5208,7 +5217,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5217,7 +5226,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5226,17 +5235,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D183" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E184" t="s">
         <v>137</v>
       </c>
@@ -5256,12 +5265,12 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>165</v>
       </c>
@@ -5280,102 +5289,102 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>149</v>
       </c>
@@ -5391,16 +5400,16 @@
   <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:F48"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>175</v>
       </c>
@@ -5420,220 +5429,220 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E11" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
         <v>35</v>
       </c>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>37</v>
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
         <v>41</v>
       </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
         <v>42</v>
       </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
         <v>43</v>
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>148</v>
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>151</v>
       </c>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
         <v>44</v>
       </c>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
         <v>45</v>
       </c>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
         <v>38</v>
       </c>
@@ -5642,7 +5651,7 @@
       </c>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E39" t="s">
         <v>48</v>
       </c>
@@ -5651,127 +5660,127 @@
       </c>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>37</v>
       </c>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E43" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F44" t="s">
         <v>62</v>
       </c>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E45" t="s">
         <v>59</v>
       </c>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
         <v>60</v>
       </c>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E47" t="s">
         <v>61</v>
       </c>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
         <v>63</v>
       </c>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
         <v>64</v>
       </c>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E50" t="s">
         <v>65</v>
       </c>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E51" t="s">
         <v>66</v>
       </c>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E52" t="s">
         <v>67</v>
       </c>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E53" t="s">
         <v>68</v>
       </c>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E54" t="s">
         <v>69</v>
       </c>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E55" t="s">
         <v>70</v>
       </c>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D56" t="s">
         <v>32</v>
       </c>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E58" t="s">
         <v>71</v>
       </c>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E59" t="s">
         <v>72</v>
       </c>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -5781,7 +5790,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -5791,7 +5800,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -5801,7 +5810,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -5811,7 +5820,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -5821,7 +5830,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -5831,7 +5840,7 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -5841,7 +5850,7 @@
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -5851,7 +5860,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -5861,7 +5870,7 @@
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -5871,7 +5880,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -5881,7 +5890,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -5891,7 +5900,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -5901,7 +5910,7 @@
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -5911,7 +5920,7 @@
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -5921,7 +5930,7 @@
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -5931,7 +5940,7 @@
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -5941,7 +5950,7 @@
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -5951,7 +5960,7 @@
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -5961,7 +5970,7 @@
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -5971,7 +5980,7 @@
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -5981,7 +5990,7 @@
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -5991,7 +6000,7 @@
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -6001,7 +6010,7 @@
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -6011,7 +6020,7 @@
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -6021,7 +6030,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -6031,7 +6040,7 @@
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -6041,7 +6050,7 @@
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -6051,7 +6060,7 @@
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -6061,7 +6070,7 @@
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -6071,7 +6080,7 @@
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -6081,7 +6090,7 @@
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -6091,7 +6100,7 @@
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -6101,7 +6110,7 @@
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -6111,7 +6120,7 @@
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -6121,7 +6130,7 @@
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -6131,7 +6140,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -6141,7 +6150,7 @@
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -6151,7 +6160,7 @@
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -6161,7 +6170,7 @@
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -6171,7 +6180,7 @@
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -6181,7 +6190,7 @@
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -6191,7 +6200,7 @@
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -6201,7 +6210,7 @@
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -6211,7 +6220,7 @@
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -6221,7 +6230,7 @@
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -6231,7 +6240,7 @@
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -6241,7 +6250,7 @@
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -6251,7 +6260,7 @@
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -6261,7 +6270,7 @@
       <c r="G108" s="13"/>
       <c r="H108" s="13"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -6271,7 +6280,7 @@
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -6281,7 +6290,7 @@
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -6291,7 +6300,7 @@
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -6301,7 +6310,7 @@
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -6311,7 +6320,7 @@
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -6321,7 +6330,7 @@
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -6331,7 +6340,7 @@
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -6341,7 +6350,7 @@
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -6351,7 +6360,7 @@
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -6361,7 +6370,7 @@
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -6371,7 +6380,7 @@
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -6381,7 +6390,7 @@
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -6391,7 +6400,7 @@
       <c r="G121" s="13"/>
       <c r="H121" s="13"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -6401,7 +6410,7 @@
       <c r="G122" s="13"/>
       <c r="H122" s="13"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="13"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -6411,7 +6420,7 @@
       <c r="G123" s="13"/>
       <c r="H123" s="13"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -6421,7 +6430,7 @@
       <c r="G124" s="13"/>
       <c r="H124" s="13"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -6431,7 +6440,7 @@
       <c r="G125" s="13"/>
       <c r="H125" s="13"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -6441,7 +6450,7 @@
       <c r="G126" s="13"/>
       <c r="H126" s="13"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -6451,7 +6460,7 @@
       <c r="G127" s="13"/>
       <c r="H127" s="13"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -6461,7 +6470,7 @@
       <c r="G128" s="13"/>
       <c r="H128" s="13"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="13"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -6471,7 +6480,7 @@
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="13"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -6481,7 +6490,7 @@
       <c r="G130" s="13"/>
       <c r="H130" s="13"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="13"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -6491,7 +6500,7 @@
       <c r="G131" s="13"/>
       <c r="H131" s="13"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="13"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -6501,7 +6510,7 @@
       <c r="G132" s="13"/>
       <c r="H132" s="13"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="13"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -6511,7 +6520,7 @@
       <c r="G133" s="13"/>
       <c r="H133" s="13"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -6521,7 +6530,7 @@
       <c r="G134" s="13"/>
       <c r="H134" s="13"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -6531,7 +6540,7 @@
       <c r="G135" s="13"/>
       <c r="H135" s="13"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -6541,7 +6550,7 @@
       <c r="G136" s="13"/>
       <c r="H136" s="13"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -6551,7 +6560,7 @@
       <c r="G137" s="13"/>
       <c r="H137" s="13"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -6561,7 +6570,7 @@
       <c r="G138" s="13"/>
       <c r="H138" s="13"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -6571,7 +6580,7 @@
       <c r="G139" s="13"/>
       <c r="H139" s="13"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -6581,7 +6590,7 @@
       <c r="G140" s="13"/>
       <c r="H140" s="13"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -6591,7 +6600,7 @@
       <c r="G141" s="13"/>
       <c r="H141" s="13"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -6601,7 +6610,7 @@
       <c r="G142" s="13"/>
       <c r="H142" s="13"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -6611,7 +6620,7 @@
       <c r="G143" s="13"/>
       <c r="H143" s="13"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -6621,7 +6630,7 @@
       <c r="G144" s="13"/>
       <c r="H144" s="13"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -6631,7 +6640,7 @@
       <c r="G145" s="13"/>
       <c r="H145" s="13"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -6641,7 +6650,7 @@
       <c r="G146" s="13"/>
       <c r="H146" s="13"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -6651,7 +6660,7 @@
       <c r="G147" s="13"/>
       <c r="H147" s="13"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" s="13"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -6661,7 +6670,7 @@
       <c r="G148" s="13"/>
       <c r="H148" s="13"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -6671,7 +6680,7 @@
       <c r="G149" s="13"/>
       <c r="H149" s="13"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -6681,7 +6690,7 @@
       <c r="G150" s="13"/>
       <c r="H150" s="13"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -6691,7 +6700,7 @@
       <c r="G151" s="13"/>
       <c r="H151" s="13"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -6701,7 +6710,7 @@
       <c r="G152" s="13"/>
       <c r="H152" s="13"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -6711,7 +6720,7 @@
       <c r="G153" s="13"/>
       <c r="H153" s="13"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -6721,7 +6730,7 @@
       <c r="G154" s="13"/>
       <c r="H154" s="13"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -6731,7 +6740,7 @@
       <c r="G155" s="13"/>
       <c r="H155" s="13"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -6741,7 +6750,7 @@
       <c r="G156" s="13"/>
       <c r="H156" s="13"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -6751,7 +6760,7 @@
       <c r="G157" s="13"/>
       <c r="H157" s="13"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -6761,7 +6770,7 @@
       <c r="G158" s="13"/>
       <c r="H158" s="13"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -6771,7 +6780,7 @@
       <c r="G159" s="13"/>
       <c r="H159" s="13"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -6781,7 +6790,7 @@
       <c r="G160" s="13"/>
       <c r="H160" s="13"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -6791,7 +6800,7 @@
       <c r="G161" s="13"/>
       <c r="H161" s="13"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -6801,7 +6810,7 @@
       <c r="G162" s="13"/>
       <c r="H162" s="13"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -6811,7 +6820,7 @@
       <c r="G163" s="13"/>
       <c r="H163" s="13"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -6821,7 +6830,7 @@
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -6831,7 +6840,7 @@
       <c r="G165" s="13"/>
       <c r="H165" s="13"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -6841,7 +6850,7 @@
       <c r="G166" s="13"/>
       <c r="H166" s="13"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -6851,7 +6860,7 @@
       <c r="G167" s="13"/>
       <c r="H167" s="13"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -6861,7 +6870,7 @@
       <c r="G168" s="13"/>
       <c r="H168" s="13"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -6871,7 +6880,7 @@
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -6881,7 +6890,7 @@
       <c r="G170" s="13"/>
       <c r="H170" s="13"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -6891,7 +6900,7 @@
       <c r="G171" s="13"/>
       <c r="H171" s="13"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -6901,7 +6910,7 @@
       <c r="G172" s="13"/>
       <c r="H172" s="13"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -6911,7 +6920,7 @@
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -6921,7 +6930,7 @@
       <c r="G174" s="13"/>
       <c r="H174" s="13"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -6931,7 +6940,7 @@
       <c r="G175" s="13"/>
       <c r="H175" s="13"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -6941,7 +6950,7 @@
       <c r="G176" s="13"/>
       <c r="H176" s="13"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -6951,7 +6960,7 @@
       <c r="G177" s="13"/>
       <c r="H177" s="13"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -6961,7 +6970,7 @@
       <c r="G178" s="13"/>
       <c r="H178" s="13"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -6971,7 +6980,7 @@
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -6981,7 +6990,7 @@
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -6991,7 +7000,7 @@
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -7001,7 +7010,7 @@
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -7011,7 +7020,7 @@
       <c r="G183" s="13"/>
       <c r="H183" s="13"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -7021,7 +7030,7 @@
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -7031,7 +7040,7 @@
       <c r="G185" s="13"/>
       <c r="H185" s="13"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -7056,9 +7065,9 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>181</v>
       </c>
@@ -7081,117 +7090,117 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>487</v>
       </c>
@@ -7206,23 +7215,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="10.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9" style="10"/>
-    <col min="5" max="5" width="24.25" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="8.83203125" style="9"/>
+    <col min="2" max="2" width="8.83203125" style="10"/>
+    <col min="3" max="3" width="10.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="10"/>
+    <col min="5" max="5" width="24.1640625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>188</v>
@@ -7237,7 +7246,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -7250,7 +7259,7 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3"/>
       <c r="B3" t="s">
         <v>191</v>
@@ -7263,7 +7272,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4"/>
       <c r="B4" t="s">
         <v>488</v>
@@ -7276,7 +7285,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" t="s">
@@ -7289,11 +7298,11 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -7302,11 +7311,11 @@
       <c r="H6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -7315,10 +7324,10 @@
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -7328,7 +7337,7 @@
       <c r="H8"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>202</v>
@@ -7341,10 +7350,10 @@
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -7354,10 +7363,10 @@
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -7367,10 +7376,10 @@
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -7380,11 +7389,11 @@
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -7393,11 +7402,11 @@
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -7406,7 +7415,7 @@
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -7417,7 +7426,7 @@
       <c r="H15"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16"/>
       <c r="B16" s="10" t="s">
         <v>89</v>
@@ -7430,10 +7439,10 @@
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -7443,7 +7452,7 @@
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18" t="s">
         <v>164</v>
@@ -7456,9 +7465,9 @@
       <c r="H18"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -7469,10 +7478,10 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -7482,10 +7491,10 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -7495,7 +7504,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" t="s">
@@ -7508,11 +7517,11 @@
       <c r="H22"/>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -7521,11 +7530,11 @@
       <c r="H23"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -7534,10 +7543,10 @@
       <c r="H24"/>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -7547,10 +7556,10 @@
       <c r="H25"/>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -7560,7 +7569,7 @@
       <c r="H26"/>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>194</v>
@@ -7573,7 +7582,7 @@
       <c r="H27"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>15</v>
       </c>
@@ -7585,10 +7594,10 @@
       <c r="H28"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -7598,10 +7607,10 @@
       <c r="H29"/>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -7611,10 +7620,10 @@
       <c r="H30"/>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="C31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -7623,10 +7632,10 @@
       <c r="H31"/>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="C32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -7635,10 +7644,10 @@
       <c r="H32"/>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="C33" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -7647,7 +7656,7 @@
       <c r="H33"/>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="10" t="s">
         <v>485</v>
@@ -7659,7 +7668,7 @@
       <c r="H34"/>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="10" t="s">
         <v>5</v>
@@ -7671,10 +7680,10 @@
       <c r="H35"/>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -7682,10 +7691,10 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -7693,10 +7702,10 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -7706,7 +7715,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="10" t="s">
         <v>164</v>
@@ -7719,9 +7728,9 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
@@ -7732,10 +7741,10 @@
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41"/>
@@ -7745,10 +7754,10 @@
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42"/>
@@ -7758,11 +7767,11 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -7771,11 +7780,11 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -7784,11 +7793,11 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -7797,10 +7806,10 @@
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="15"/>
       <c r="B46" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46"/>
@@ -7810,7 +7819,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="15"/>
       <c r="B47" s="16" t="s">
         <v>37</v>
@@ -7823,10 +7832,10 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -7836,7 +7845,7 @@
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="15" t="s">
         <v>54</v>
       </c>
@@ -7848,10 +7857,10 @@
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
       <c r="B50" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -7861,10 +7870,10 @@
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="15"/>
       <c r="B51" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -7874,10 +7883,10 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="15"/>
       <c r="C52" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -7886,10 +7895,10 @@
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="15"/>
       <c r="C53" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -7898,10 +7907,10 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="15"/>
       <c r="C54" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -7910,7 +7919,7 @@
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="15"/>
       <c r="B55" s="10" t="s">
         <v>32</v>
@@ -7923,10 +7932,10 @@
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="17"/>
       <c r="B56" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -7936,10 +7945,10 @@
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
       <c r="B57" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -7949,7 +7958,7 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
       <c r="B58" s="18" t="s">
         <v>164</v>
@@ -7962,9 +7971,9 @@
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -7975,10 +7984,10 @@
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="17"/>
       <c r="B60" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
@@ -7988,178 +7997,178 @@
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B61" s="10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C63" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C64" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B65" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B67" s="10" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="B67" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B68" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>195</v>
       </c>
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78"/>
       <c r="B78" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>196</v>
       </c>
       <c r="B79"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80"/>
       <c r="B80" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81"/>
       <c r="B81" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82"/>
       <c r="B82" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83"/>
       <c r="B83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>199</v>
       </c>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87"/>
       <c r="B87" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -8171,25 +8180,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="13.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" s="10" t="s">
         <v>205</v>
       </c>
@@ -8205,16 +8214,16 @@
       <c r="M2"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4"/>
       <c r="C4" t="s">
         <v>486</v>
@@ -8223,38 +8232,38 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5"/>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>487</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C7" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="M8"/>
       <c r="N8"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" s="10" t="s">
         <v>210</v>
       </c>
@@ -8265,161 +8274,161 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29"/>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="10" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
-        <v>365</v>
-      </c>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18"/>
-      <c r="D18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19"/>
-      <c r="D19"/>
-      <c r="E19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21"/>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22"/>
-      <c r="D22"/>
-      <c r="E22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23"/>
-      <c r="D23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24"/>
-      <c r="D24"/>
-      <c r="E24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25"/>
-      <c r="D25"/>
-      <c r="E25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26"/>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27"/>
-      <c r="D27"/>
-      <c r="E27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29"/>
-      <c r="D29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30"/>
-      <c r="D30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31"/>
-      <c r="D31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33"/>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34"/>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35"/>
-      <c r="D35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36"/>
-      <c r="D36" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -8432,85 +8441,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="10"/>
+    <col min="1" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3"/>
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>59</v>
       </c>
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>61</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>63</v>
       </c>
       <c r="C8"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>372</v>
       </c>
@@ -8529,16 +8538,16 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="10" customWidth="1"/>
-    <col min="2" max="4" width="9" style="10"/>
-    <col min="5" max="5" width="17.75" style="10" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="10" customWidth="1"/>
+    <col min="2" max="4" width="8.83203125" style="10"/>
+    <col min="5" max="5" width="17.6640625" style="10" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="7" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1">
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>366</v>
       </c>
@@ -8570,7 +8579,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>230</v>
       </c>
@@ -8578,7 +8587,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>232</v>
       </c>
@@ -8586,7 +8595,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>234</v>
       </c>
@@ -8594,7 +8603,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>236</v>
       </c>
@@ -8602,7 +8611,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>238</v>
       </c>
@@ -8610,12 +8619,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8" s="10" t="s">
         <v>241</v>
       </c>
@@ -8623,7 +8632,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B9" s="10" t="s">
         <v>243</v>
       </c>
@@ -8631,7 +8640,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" s="10" t="s">
         <v>245</v>
       </c>
@@ -8639,7 +8648,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B11" s="10" t="s">
         <v>247</v>
       </c>
@@ -8647,7 +8656,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B12" s="10" t="s">
         <v>249</v>
       </c>
@@ -8655,7 +8664,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B13" s="10" t="s">
         <v>251</v>
       </c>
@@ -8673,23 +8682,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="26.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1">
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>253</v>
       </c>
@@ -8730,7 +8739,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1">
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>259</v>
       </c>
@@ -8741,7 +8750,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1">
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>262</v>
       </c>
@@ -8752,7 +8761,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1">
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>265</v>
       </c>
@@ -8763,7 +8772,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1">
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>268</v>
       </c>
@@ -8774,7 +8783,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1">
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>271</v>
       </c>
@@ -8785,7 +8794,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1">
+    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>274</v>
       </c>
@@ -8796,7 +8805,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1">
+    <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>277</v>
       </c>
@@ -8807,145 +8816,145 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="11" customFormat="1"/>
-    <row r="15" spans="1:14">
+    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="6:6">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="6:6">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="6:6">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="6:6">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="6:6">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="6:6">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="6:6">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="6:6">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="6:6">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="6:6">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="6:6">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="6:6">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="6:6">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="6:6">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="6:6">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="6:6">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="6:6">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="6:6">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="6:6">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="6:6">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="6:6">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F60" s="11"/>
     </row>
   </sheetData>
